--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_6.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999316314600118</v>
+        <v>0.9999962282305913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991402952202327</v>
+        <v>0.9991050822661109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997886482335173</v>
+        <v>0.9999872698053905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999427401052432</v>
+        <v>0.9999074313388914</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998692250803385</v>
+        <v>0.9999840294059048</v>
       </c>
       <c r="G2" t="n">
-        <v>6.381903104690359e-05</v>
+        <v>3.520781181502057e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008024966752342847</v>
+        <v>0.0008353664222369975</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003735936779879483</v>
+        <v>4.835338838724891e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>2.527508581277702e-05</v>
+        <v>1.336823957623963e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001994343819003626</v>
+        <v>9.101789207482262e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004074834775269906</v>
+        <v>0.0001412264201023154</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007988681433559833</v>
+        <v>0.001876374477949979</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000182316106635</v>
+        <v>1.000010058051757</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008328776141036803</v>
+        <v>0.001956255624106947</v>
       </c>
       <c r="P2" t="n">
-        <v>85.31891823964521</v>
+        <v>91.11365533282648</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.5418204602958</v>
+        <v>131.3365575534771</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999315779063156</v>
+        <v>0.99999616878072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991402666379866</v>
+        <v>0.9991041425452423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997884732185489</v>
+        <v>0.9999887985419499</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999427328284675</v>
+        <v>0.9998963372784755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998691225979622</v>
+        <v>0.9999831332302164</v>
       </c>
       <c r="G3" t="n">
-        <v>6.386902107162859e-05</v>
+        <v>3.576275026883177e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008025233555065034</v>
+        <v>0.0008362436104188931</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003739030413153719</v>
+        <v>4.254675346445598e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>2.52782978537925e-05</v>
+        <v>1.497038068680852e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001995906695845822</v>
+        <v>9.612528016627057e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004074787997059938</v>
+        <v>0.0001480506373845301</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007991809624335943</v>
+        <v>0.001891104181922079</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000182458916492</v>
+        <v>1.000010216584747</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008332037505370498</v>
+        <v>0.00197161240207183</v>
       </c>
       <c r="P3" t="n">
-        <v>85.31735223479356</v>
+        <v>91.08237758905339</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.5402544554442</v>
+        <v>131.305279809704</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999315716389336</v>
+        <v>0.9999959648380982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991402641052383</v>
+        <v>0.9991033798137846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999788453258056</v>
+        <v>0.9999896834874519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999427340120424</v>
+        <v>0.9998819933330457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998691112012243</v>
+        <v>0.9999816107596018</v>
       </c>
       <c r="G4" t="n">
-        <v>6.38748713974999e-05</v>
+        <v>3.76664651226408e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008025257197158302</v>
+        <v>0.000836955586754563</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003739383242661192</v>
+        <v>3.918544479050822e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>2.527777541208622e-05</v>
+        <v>1.704185170818556e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001996080498391027</v>
+        <v>1.048019809361819e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004074807722595642</v>
+        <v>0.0001545173290043154</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007992175636051793</v>
+        <v>0.001940785024742328</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00018247562951</v>
+        <v>1.000010760431738</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008332419098962844</v>
+        <v>0.00202340826122446</v>
       </c>
       <c r="P4" t="n">
-        <v>85.31716904557763</v>
+        <v>90.9786509433095</v>
       </c>
       <c r="Q4" t="n">
-        <v>125.5400712662283</v>
+        <v>131.2015531639601</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999315423735126</v>
+        <v>0.9999956688043684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999140247342472</v>
+        <v>0.999102726115783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997883573609256</v>
+        <v>0.9999900964519222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999427270616906</v>
+        <v>0.9998659021151729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998690546185324</v>
+        <v>0.999979709628012</v>
       </c>
       <c r="G5" t="n">
-        <v>6.390218938346566e-05</v>
+        <v>4.042981004567583e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008025413670223376</v>
+        <v>0.000837565785145053</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003741078357976045</v>
+        <v>3.761687242894767e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>2.528084336630691e-05</v>
+        <v>1.936565387860478e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001996943395819557</v>
+        <v>1.156367056074977e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004074824019022535</v>
+        <v>0.0001604471555002696</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007993884499007078</v>
+        <v>0.002010716540084053</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000182553670633</v>
+        <v>1.000011549855018</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008334200711751968</v>
+        <v>0.002096316905952474</v>
       </c>
       <c r="P5" t="n">
-        <v>85.31631386903138</v>
+        <v>90.83705653133502</v>
       </c>
       <c r="Q5" t="n">
-        <v>125.539216089682</v>
+        <v>131.0599587519856</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999315361031286</v>
+        <v>0.9999953026268609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991402439245765</v>
+        <v>0.9991022128734611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997883363679499</v>
+        <v>0.999990209608374</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999427282452655</v>
+        <v>0.9998483086177211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999869042623423</v>
+        <v>0.9999775182507037</v>
       </c>
       <c r="G6" t="n">
-        <v>6.390804251168795e-05</v>
+        <v>4.384791634561693e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008025445574778281</v>
+        <v>0.000838044874323823</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003741449438054817</v>
+        <v>3.718706769825671e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>2.528032092460064e-05</v>
+        <v>2.19064067219819e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001997126323650412</v>
+        <v>1.281255674590379e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004074745885192583</v>
+        <v>0.000166110160876784</v>
       </c>
       <c r="M6" t="n">
-        <v>0.007994250590999006</v>
+        <v>0.002093989406506559</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000182570391657</v>
+        <v>1.000012526328371</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008334582389037906</v>
+        <v>0.002183134870697185</v>
       </c>
       <c r="P6" t="n">
-        <v>85.31613068719564</v>
+        <v>90.67473690208595</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.5390329078463</v>
+        <v>130.8976391227366</v>
       </c>
     </row>
     <row r="7">
@@ -797,1042 +797,1042 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999315311757716</v>
+        <v>0.9999948974238839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991402434922324</v>
+        <v>0.9991017889221946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999901169658161</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.999830086076788</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999751785936554</v>
       </c>
       <c r="G7" t="n">
-        <v>6.39126419832121e-05</v>
+        <v>4.763030827192222e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000802544961052019</v>
+        <v>0.0008384406142218311</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003741711453546285</v>
+        <v>3.7538954038158e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>2.453800244740678e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001997270061232454</v>
+        <v>1.414594892561129e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004074675297719144</v>
+        <v>0.0001709440229357001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.007994538259537701</v>
+        <v>0.002182436901079209</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000182583531276</v>
+        <v>1.000013606869643</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008334882304221851</v>
+        <v>0.002275347758225347</v>
       </c>
       <c r="P7" t="n">
-        <v>85.31598675207138</v>
+        <v>90.50925272788947</v>
       </c>
       <c r="Q7" t="n">
-        <v>125.538888972722</v>
+        <v>130.7321549485401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_22</t>
+          <t>model_16_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999944689579918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9991014014563162</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999898903666083</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9998116229948354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999727638205893</v>
       </c>
       <c r="G8" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>5.162984929937961e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008388022966114789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003741711453546285</v>
+        <v>3.839965097467574e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>2.720433573886261e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001997270061232454</v>
+        <v>1.552215041816509e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.000175072572089032</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.00227222026439735</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000014749445355</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.002368953385197124</v>
       </c>
       <c r="P8" t="n">
-        <v>85.31603160917368</v>
+        <v>90.34799134185734</v>
       </c>
       <c r="Q8" t="n">
-        <v>125.5389338298243</v>
+        <v>130.570893562508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_21</t>
+          <t>model_16_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999940268435906</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9991010573160538</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999895741304116</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9997931371185838</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999703162889347</v>
       </c>
       <c r="G9" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>5.57567931687073e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008391235364403697</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003741711453546285</v>
+        <v>3.960081812975508e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>2.987396085333267e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001997270061232454</v>
+        <v>1.691702133315409e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.000178710573619008</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002361287639587928</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000015928417092</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.00246181254294445</v>
       </c>
       <c r="P9" t="n">
-        <v>85.31603160917368</v>
+        <v>90.19419279496299</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.5389338298243</v>
+        <v>130.4170950156136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_20</t>
+          <t>model_16_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999935920091768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9991007682680001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999892309086212</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9997752620071091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999679371481485</v>
       </c>
       <c r="G10" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>5.981578155202855e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008393933501108477</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.090448528002974e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>3.24553827922876e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001997270061232454</v>
+        <v>1.827291566014529e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001817882471993542</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002445726508668305</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000017087975529</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.002549846149494134</v>
       </c>
       <c r="P10" t="n">
-        <v>85.31603160917368</v>
+        <v>90.05365223853272</v>
       </c>
       <c r="Q10" t="n">
-        <v>125.5389338298243</v>
+        <v>130.2765544591834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_19</t>
+          <t>model_16_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999931774039094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9991005218852536</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999888872343973</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9997584226617535</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999656890875339</v>
       </c>
       <c r="G11" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>6.368593973210409e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008396233375897737</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.220987091970379e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>3.488722527897476e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001997270061232454</v>
+        <v>1.955410618547257e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001843099651623066</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002523607333403993</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000018193589575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.002631042522174352</v>
       </c>
       <c r="P11" t="n">
-        <v>85.31603160917368</v>
+        <v>89.92826367816889</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.5389338298243</v>
+        <v>130.1511658988195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_18</t>
+          <t>model_16_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999927750193879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9991002798575375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999885242929171</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9997422696813474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999635215683369</v>
       </c>
       <c r="G12" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>6.744202261397648e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.000839849259838973</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.358843981781433e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>3.721994684319459e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.078939541248801e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001864904481116089</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002596960196344497</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000019266614966</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.002707518168351593</v>
       </c>
       <c r="P12" t="n">
-        <v>85.31603160917368</v>
+        <v>89.813654692808</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.5389338298243</v>
+        <v>130.0365569134586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_17</t>
+          <t>model_16_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999923891741817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9991000748863723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999881734147849</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9997269078014827</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999869033198132</v>
+        <v>0.999961458301081</v>
       </c>
       <c r="G13" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>7.10437182483191e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008400405914243804</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.492118822591966e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>3.943842216641478e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.196527049450337e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001883861517586052</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002665402750961271</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000020295535516</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.002778874464214023</v>
       </c>
       <c r="P13" t="n">
-        <v>85.31603160917368</v>
+        <v>89.70960042687382</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.5389338298243</v>
+        <v>129.9325026475244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_16</t>
+          <t>model_16_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999920313082943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990998880484705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999878462942775</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9997127459673237</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999595549958635</v>
       </c>
       <c r="G14" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>7.438423922120033e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008402149964045441</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.616369750603859e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>4.148359371376685e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.304998173218536e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001899146375008157</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002727347415002356</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000021249844549</v>
       </c>
       <c r="O14" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.002843456240846469</v>
       </c>
       <c r="P14" t="n">
-        <v>85.31603160917368</v>
+        <v>89.61770313996986</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.5389338298243</v>
+        <v>129.8406053606205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_15</t>
+          <t>model_16_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999917005934301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990997213340375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999875481213704</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.999699689333272</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999578013653079</v>
       </c>
       <c r="G15" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>7.747131731136138e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008403706170098733</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.729625445647244e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>4.336915854717608e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.404939199641166e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001911587062375205</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002783366977445867</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000022131750853</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.00290186067203968</v>
       </c>
       <c r="P15" t="n">
-        <v>85.31603160917368</v>
+        <v>89.53637576462174</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.5389338298243</v>
+        <v>129.7592779852724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_12</t>
+          <t>model_16_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999913930184019</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990995680050029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.999987264602034</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996875981756576</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999561749431779</v>
       </c>
       <c r="G16" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>8.034239518974324e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008405137429332203</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.837315241510593e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>4.511529476444386e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.497630500297722e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001922404824912778</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002834473411230792</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000022951950928</v>
       </c>
       <c r="O16" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.002955142812515733</v>
       </c>
       <c r="P16" t="n">
-        <v>85.31603160917368</v>
+        <v>89.4635964186115</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.5389338298243</v>
+        <v>129.6864986392621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_13</t>
+          <t>model_16_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999911036183787</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990994248118754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999869943630422</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996762888490399</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999546520040945</v>
       </c>
       <c r="G17" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>8.304381737422833e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008406474074323268</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0003741711453546285</v>
+        <v>4.939960733816241e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>4.674852339558711e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.584424206470167e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.000193217109630756</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002881732419469725</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000023723684323</v>
       </c>
       <c r="O17" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.00300441373457503</v>
       </c>
       <c r="P17" t="n">
-        <v>85.31603160917368</v>
+        <v>89.39745452458226</v>
       </c>
       <c r="Q17" t="n">
-        <v>125.5389338298243</v>
+        <v>129.6203567452329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_23</t>
+          <t>model_16_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999908424917094</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990992868528609</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999867490053322</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996661118243292</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999532808183977</v>
       </c>
       <c r="G18" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>8.548132021119875e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008407761861166207</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.033155512114863e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>4.821823142504126e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.662569346857806e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001939773210105687</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002923718868345566</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000024420022108</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.003048187633503447</v>
       </c>
       <c r="P18" t="n">
-        <v>85.31603160917368</v>
+        <v>89.3395955518944</v>
       </c>
       <c r="Q18" t="n">
-        <v>125.5389338298243</v>
+        <v>129.562497772545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_11</t>
+          <t>model_16_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999906033016828</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.99909917531364</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999865383169017</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996567845909804</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999520288539177</v>
       </c>
       <c r="G19" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>8.771405411756416e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008408803030833264</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.113181779019446e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>4.95652174189726e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.733919959899602e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001946266825267597</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002961655856401351</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000025057862179</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.003087739677681158</v>
       </c>
       <c r="P19" t="n">
-        <v>85.31603160917368</v>
+        <v>89.28802702444696</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.5389338298243</v>
+        <v>129.5109292450976</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_10</t>
+          <t>model_16_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999903829407352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990990650789304</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999863364666443</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.999648226195507</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999508772459575</v>
       </c>
       <c r="G20" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>8.977102683581087e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008409832023460134</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.189851022421748e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>5.080117221951858e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.799551162097016e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.000195178936075385</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.002996181350249195</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000025645491373</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.00312373499327973</v>
       </c>
       <c r="P20" t="n">
-        <v>85.31603160917368</v>
+        <v>89.24166673747317</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.5389338298243</v>
+        <v>129.4645689581238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_9</t>
+          <t>model_16_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999901846138105</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990989595752823</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.999986155265944</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996405509605071</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999498444151383</v>
       </c>
       <c r="G21" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>9.162232162214078e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008410816853704141</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.25867689745493e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>5.190958600722135e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.858413145233815e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001956511540671215</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.003026917931199007</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000026174363172</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.003155780094114069</v>
       </c>
       <c r="P21" t="n">
-        <v>85.31603160917368</v>
+        <v>89.20084144626715</v>
       </c>
       <c r="Q21" t="n">
-        <v>125.5389338298243</v>
+        <v>129.4237436669178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_8</t>
+          <t>model_16_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.999990003148635</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990988639900137</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999859873890774</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996335357694215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999488996515082</v>
       </c>
       <c r="G22" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>9.331621938179103e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008411709100230221</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.322441950426898e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>5.29226800066608e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.912256097854385e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001960588941152211</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.003054770357683062</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000026658270307</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.003184818256056022</v>
       </c>
       <c r="P22" t="n">
-        <v>85.31603160917368</v>
+        <v>89.16420343407378</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.5389338298243</v>
+        <v>129.3871056547244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_7</t>
+          <t>model_16_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.99998983859251</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990987762378218</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999858406236471</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996271752957551</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999480448753387</v>
       </c>
       <c r="G23" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>9.485227857666247e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008412528228421985</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.378188198338647e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>5.384122343996389e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001997270061232454</v>
+        <v>2.960970581915127e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001963852342706818</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.003079809711275398</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000182579436238</v>
+        <v>1.00002709708664</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.00321092358676939</v>
       </c>
       <c r="P23" t="n">
-        <v>85.31603160917368</v>
+        <v>89.13154986383475</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.5389338298243</v>
+        <v>129.3544520844854</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_6</t>
+          <t>model_16_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999896921445321</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990986994597914</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999857105113884</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996215207636137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999472850910238</v>
       </c>
       <c r="G24" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>9.621930616652912e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008413244917635154</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.427609034180241e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>5.46578188130867e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001997270061232454</v>
+        <v>3.004271392363347e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001966526038349704</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.003101923696136466</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000027487614581</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.003233979009748254</v>
       </c>
       <c r="P24" t="n">
-        <v>85.31603160917368</v>
+        <v>89.10293125124001</v>
       </c>
       <c r="Q24" t="n">
-        <v>125.5389338298243</v>
+        <v>129.3258334718906</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_16_6_14</t>
+          <t>model_16_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999895550407008</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990986277606565</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999855879365329</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.999616242894542</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999465755414507</v>
       </c>
       <c r="G25" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>9.749911025137961e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008413914197586772</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.474166921003121e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>5.542001864787081e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001997270061232454</v>
+        <v>3.044709278443697e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001969235965050914</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.003122484751786302</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000182579436238</v>
+        <v>1.000027853224798</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.003255415392104356</v>
       </c>
       <c r="P25" t="n">
-        <v>85.31603160917368</v>
+        <v>89.07650479724606</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.5389338298243</v>
+        <v>129.2994070178967</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999315327114109</v>
+        <v>0.9999894302448962</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991402431120942</v>
+        <v>0.9990985583421979</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997883215450447</v>
+        <v>0.9999854713434362</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999427224774585</v>
+        <v>0.9996114549921169</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999869033198132</v>
+        <v>0.9999459300637124</v>
       </c>
       <c r="G26" t="n">
-        <v>6.391120853132794e-05</v>
+        <v>9.866402430760824e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000802545315894426</v>
+        <v>0.0008414562188426598</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003741711453546285</v>
+        <v>5.518452742714225e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>2.52828668918624e-05</v>
+        <v>5.611146028609271e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001997270061232454</v>
+        <v>3.081495651440348e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004074666136757037</v>
+        <v>0.0001971518953713278</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00799444860708529</v>
+        <v>0.003141083002844851</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000182579436238</v>
+        <v>1.00002818601361</v>
       </c>
       <c r="O26" t="n">
-        <v>0.008334788835078934</v>
+        <v>0.003274805409214155</v>
       </c>
       <c r="P26" t="n">
-        <v>85.31603160917368</v>
+        <v>89.05275053265422</v>
       </c>
       <c r="Q26" t="n">
-        <v>125.5389338298243</v>
+        <v>129.2756527533049</v>
       </c>
     </row>
   </sheetData>
